--- a/Code/Results/Cases/Case_4_170/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_170/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.007070170745683</v>
+        <v>1.047984526711065</v>
       </c>
       <c r="D2">
-        <v>1.023410710376724</v>
+        <v>1.04656188699557</v>
       </c>
       <c r="E2">
-        <v>1.024324814496242</v>
+        <v>1.061385451533013</v>
       </c>
       <c r="F2">
-        <v>1.030223597447802</v>
+        <v>1.068325505254562</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049609252154826</v>
+        <v>1.040806349766163</v>
       </c>
       <c r="J2">
-        <v>1.029041451220785</v>
+        <v>1.053030688341007</v>
       </c>
       <c r="K2">
-        <v>1.034553253784287</v>
+        <v>1.049326976296874</v>
       </c>
       <c r="L2">
-        <v>1.035455356569079</v>
+        <v>1.06410965527328</v>
       </c>
       <c r="M2">
-        <v>1.041277334895494</v>
+        <v>1.071030989235665</v>
       </c>
       <c r="N2">
-        <v>1.012573525231207</v>
+        <v>1.021376121426462</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.013956332216612</v>
+        <v>1.049364455045103</v>
       </c>
       <c r="D3">
-        <v>1.028481057178212</v>
+        <v>1.047575659507991</v>
       </c>
       <c r="E3">
-        <v>1.030846211184327</v>
+        <v>1.062747371874247</v>
       </c>
       <c r="F3">
-        <v>1.036992677672919</v>
+        <v>1.069742620990987</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051889215031198</v>
+        <v>1.041154290034212</v>
       </c>
       <c r="J3">
-        <v>1.034073631345181</v>
+        <v>1.054057197472237</v>
       </c>
       <c r="K3">
-        <v>1.038762038960402</v>
+        <v>1.050151891331896</v>
       </c>
       <c r="L3">
-        <v>1.041099054167435</v>
+        <v>1.065284807494826</v>
       </c>
       <c r="M3">
-        <v>1.047173137320011</v>
+        <v>1.072262567953305</v>
       </c>
       <c r="N3">
-        <v>1.014343738167073</v>
+        <v>1.021728940453259</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.01828620647982</v>
+        <v>1.050256353290962</v>
       </c>
       <c r="D4">
-        <v>1.031670416019258</v>
+        <v>1.048230502198343</v>
       </c>
       <c r="E4">
-        <v>1.034952386724735</v>
+        <v>1.063627962558272</v>
       </c>
       <c r="F4">
-        <v>1.041254964979096</v>
+        <v>1.070658939636541</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05330771562803</v>
+        <v>1.041377288363388</v>
       </c>
       <c r="J4">
-        <v>1.037233440226329</v>
+        <v>1.054719963212003</v>
       </c>
       <c r="K4">
-        <v>1.041401061606107</v>
+        <v>1.050683925660687</v>
       </c>
       <c r="L4">
-        <v>1.044646503396187</v>
+        <v>1.06604400981479</v>
       </c>
       <c r="M4">
-        <v>1.050879725728588</v>
+        <v>1.073058303544114</v>
       </c>
       <c r="N4">
-        <v>1.015454077884286</v>
+        <v>1.021956457386525</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.020077916852602</v>
+        <v>1.050631071213899</v>
       </c>
       <c r="D5">
-        <v>1.032990371084231</v>
+        <v>1.048505528964791</v>
       </c>
       <c r="E5">
-        <v>1.036652828036988</v>
+        <v>1.063998008653675</v>
       </c>
       <c r="F5">
-        <v>1.043020097259403</v>
+        <v>1.071044009067763</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053891007694829</v>
+        <v>1.041470525350647</v>
       </c>
       <c r="J5">
-        <v>1.038539882293166</v>
+        <v>1.054998245359728</v>
       </c>
       <c r="K5">
-        <v>1.042491251238555</v>
+        <v>1.050907178866133</v>
       </c>
       <c r="L5">
-        <v>1.046114100747107</v>
+        <v>1.066362895266312</v>
       </c>
       <c r="M5">
-        <v>1.052413321922971</v>
+        <v>1.073392552922058</v>
       </c>
       <c r="N5">
-        <v>1.015912845185508</v>
+        <v>1.02205191978018</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.020377121273096</v>
+        <v>1.050693974305846</v>
       </c>
       <c r="D6">
-        <v>1.033210803734793</v>
+        <v>1.04855169147101</v>
       </c>
       <c r="E6">
-        <v>1.036936865767389</v>
+        <v>1.064060132106528</v>
       </c>
       <c r="F6">
-        <v>1.043314943421165</v>
+        <v>1.071108655204873</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053988195191142</v>
+        <v>1.041486150295108</v>
       </c>
       <c r="J6">
-        <v>1.038757984085978</v>
+        <v>1.055044950055241</v>
       </c>
       <c r="K6">
-        <v>1.042673195615771</v>
+        <v>1.050944639862228</v>
       </c>
       <c r="L6">
-        <v>1.04635915845138</v>
+        <v>1.066416421045967</v>
       </c>
       <c r="M6">
-        <v>1.052669409589534</v>
+        <v>1.073448658690854</v>
       </c>
       <c r="N6">
-        <v>1.01598941461362</v>
+        <v>1.022067937478276</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.018310257659162</v>
+        <v>1.050261361211527</v>
       </c>
       <c r="D7">
-        <v>1.031688133921811</v>
+        <v>1.048234178173336</v>
       </c>
       <c r="E7">
-        <v>1.034975207686082</v>
+        <v>1.063632907732794</v>
       </c>
       <c r="F7">
-        <v>1.041278653960162</v>
+        <v>1.070664085540364</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053315560169522</v>
+        <v>1.041378536208796</v>
       </c>
       <c r="J7">
-        <v>1.037250981761425</v>
+        <v>1.054723682981156</v>
       </c>
       <c r="K7">
-        <v>1.041415703248687</v>
+        <v>1.05068691040441</v>
       </c>
       <c r="L7">
-        <v>1.044666205252381</v>
+        <v>1.066048271885624</v>
       </c>
       <c r="M7">
-        <v>1.050900312948149</v>
+        <v>1.073062770887284</v>
       </c>
       <c r="N7">
-        <v>1.015460238979058</v>
+        <v>1.021957733688055</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.009424447818221</v>
+        <v>1.048451091692931</v>
       </c>
       <c r="D8">
-        <v>1.025143862232998</v>
+        <v>1.046904733076458</v>
       </c>
       <c r="E8">
-        <v>1.026553152897637</v>
+        <v>1.061845858825428</v>
       </c>
       <c r="F8">
-        <v>1.032536537682799</v>
+        <v>1.068804563563898</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050391879306061</v>
+        <v>1.040924382205356</v>
       </c>
       <c r="J8">
-        <v>1.030762754807441</v>
+        <v>1.053377905201996</v>
       </c>
       <c r="K8">
-        <v>1.035993683409868</v>
+        <v>1.049606122305749</v>
       </c>
       <c r="L8">
-        <v>1.037385067245936</v>
+        <v>1.064507054308982</v>
       </c>
       <c r="M8">
-        <v>1.043293104117367</v>
+        <v>1.07144745351495</v>
       </c>
       <c r="N8">
-        <v>1.013179287459579</v>
+        <v>1.02149552058148</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9927238690187372</v>
+        <v>1.045253217307409</v>
       </c>
       <c r="D9">
-        <v>1.012859349718359</v>
+        <v>1.044553253029979</v>
       </c>
       <c r="E9">
-        <v>1.010773092100067</v>
+        <v>1.058691573228852</v>
       </c>
       <c r="F9">
-        <v>1.016157859732942</v>
+        <v>1.065522659502527</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044777900138053</v>
+        <v>1.040107635961389</v>
       </c>
       <c r="J9">
-        <v>1.018536208762547</v>
+        <v>1.05099517274108</v>
       </c>
       <c r="K9">
-        <v>1.02574718219808</v>
+        <v>1.047688179144339</v>
       </c>
       <c r="L9">
-        <v>1.023693768445689</v>
+        <v>1.061781862620274</v>
       </c>
       <c r="M9">
-        <v>1.028994115641368</v>
+        <v>1.06859184554627</v>
       </c>
       <c r="N9">
-        <v>1.00887207247405</v>
+        <v>1.020675012231528</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9807669995489173</v>
+        <v>1.043115632428281</v>
       </c>
       <c r="D10">
-        <v>1.004082743611745</v>
+        <v>1.042979482235683</v>
       </c>
       <c r="E10">
-        <v>0.9995134959639732</v>
+        <v>1.056584885391294</v>
       </c>
       <c r="F10">
-        <v>1.004471531307212</v>
+        <v>1.063330937953262</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040682222889291</v>
+        <v>1.039551978053284</v>
       </c>
       <c r="J10">
-        <v>1.009765038224429</v>
+        <v>1.049398858440118</v>
       </c>
       <c r="K10">
-        <v>1.018378672067867</v>
+        <v>1.046400327892118</v>
       </c>
       <c r="L10">
-        <v>1.013891539950707</v>
+        <v>1.059958513605715</v>
       </c>
       <c r="M10">
-        <v>1.018760517502155</v>
+        <v>1.066681646567291</v>
       </c>
       <c r="N10">
-        <v>1.00577739211782</v>
+        <v>1.020123879519072</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9753625959994572</v>
+        <v>1.042188617174637</v>
       </c>
       <c r="D11">
-        <v>1.000122267251953</v>
+        <v>1.042296529774853</v>
       </c>
       <c r="E11">
-        <v>0.994434590716625</v>
+        <v>1.055671694042146</v>
       </c>
       <c r="F11">
-        <v>0.9992001518061024</v>
+        <v>1.062380933646575</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038814059526482</v>
+        <v>1.039308704895993</v>
       </c>
       <c r="J11">
-        <v>1.005797493316659</v>
+        <v>1.048705728982831</v>
       </c>
       <c r="K11">
-        <v>1.015041878159971</v>
+        <v>1.045840446931048</v>
       </c>
       <c r="L11">
-        <v>1.009462231278707</v>
+        <v>1.059167371222747</v>
       </c>
       <c r="M11">
-        <v>1.014137167872429</v>
+        <v>1.065852916986255</v>
       </c>
       <c r="N11">
-        <v>1.004376750243492</v>
+        <v>1.019884237518317</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.97331795319311</v>
+        <v>1.04184406169352</v>
       </c>
       <c r="D12">
-        <v>0.9986250731113309</v>
+        <v>1.042042621899563</v>
       </c>
       <c r="E12">
-        <v>0.992514766828224</v>
+        <v>1.055332341063342</v>
       </c>
       <c r="F12">
-        <v>0.9972075670290623</v>
+        <v>1.062027907504409</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038104842826142</v>
+        <v>1.039217939527765</v>
       </c>
       <c r="J12">
-        <v>1.004296103229093</v>
+        <v>1.048447977627891</v>
       </c>
       <c r="K12">
-        <v>1.013778662041613</v>
+        <v>1.045632143231858</v>
       </c>
       <c r="L12">
-        <v>1.007786790993211</v>
+        <v>1.058873257249252</v>
       </c>
       <c r="M12">
-        <v>1.012388461905525</v>
+        <v>1.065544844147237</v>
       </c>
       <c r="N12">
-        <v>1.003846632935012</v>
+        <v>1.019795072419033</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.973758273755966</v>
+        <v>1.041917980105454</v>
       </c>
       <c r="D13">
-        <v>0.9989474426785327</v>
+        <v>1.042097096419169</v>
       </c>
       <c r="E13">
-        <v>0.9929281296251625</v>
+        <v>1.055405140445102</v>
       </c>
       <c r="F13">
-        <v>0.9976365965710431</v>
+        <v>1.062103639793966</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03825768305306</v>
+        <v>1.039237427267967</v>
       </c>
       <c r="J13">
-        <v>1.004619446634685</v>
+        <v>1.048503279464824</v>
       </c>
       <c r="K13">
-        <v>1.014050734049779</v>
+        <v>1.04567684047885</v>
       </c>
       <c r="L13">
-        <v>1.008147587282444</v>
+        <v>1.058936357019998</v>
       </c>
       <c r="M13">
-        <v>1.012765029535314</v>
+        <v>1.065610938023731</v>
       </c>
       <c r="N13">
-        <v>1.003960803944389</v>
+        <v>1.019814205509897</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9751943635114791</v>
+        <v>1.042160140651086</v>
       </c>
       <c r="D14">
-        <v>0.9999990537397108</v>
+        <v>1.042275546361951</v>
       </c>
       <c r="E14">
-        <v>0.9942765936079946</v>
+        <v>1.055643646173652</v>
       </c>
       <c r="F14">
-        <v>0.9990361668056922</v>
+        <v>1.062351755535235</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038755754163331</v>
+        <v>1.039301210431596</v>
       </c>
       <c r="J14">
-        <v>1.005673965976289</v>
+        <v>1.048684429162803</v>
       </c>
       <c r="K14">
-        <v>1.014937956790208</v>
+        <v>1.045823235417862</v>
       </c>
       <c r="L14">
-        <v>1.009324369951411</v>
+        <v>1.059143064767907</v>
       </c>
       <c r="M14">
-        <v>1.013993275284301</v>
+        <v>1.065827456633586</v>
       </c>
       <c r="N14">
-        <v>1.004333136304677</v>
+        <v>1.01987687020023</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.976074156195735</v>
+        <v>1.042309314314181</v>
       </c>
       <c r="D15">
-        <v>1.000643462837555</v>
+        <v>1.042385464816571</v>
       </c>
       <c r="E15">
-        <v>0.995102927877208</v>
+        <v>1.055790576976405</v>
       </c>
       <c r="F15">
-        <v>0.9998938178250548</v>
+        <v>1.062504607482868</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039060570952962</v>
+        <v>1.039340455903222</v>
       </c>
       <c r="J15">
-        <v>1.006319953861815</v>
+        <v>1.048796002613287</v>
       </c>
       <c r="K15">
-        <v>1.015481394403461</v>
+        <v>1.045913389147367</v>
       </c>
       <c r="L15">
-        <v>1.010045345607205</v>
+        <v>1.059270391157805</v>
       </c>
       <c r="M15">
-        <v>1.014745798120785</v>
+        <v>1.06596082816954</v>
       </c>
       <c r="N15">
-        <v>1.004561212538757</v>
+        <v>1.019915459879416</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9811206331645734</v>
+        <v>1.043177124772141</v>
       </c>
       <c r="D16">
-        <v>1.00434204490907</v>
+        <v>1.043024775640004</v>
       </c>
       <c r="E16">
-        <v>0.9998460546633197</v>
+        <v>1.056645469737099</v>
       </c>
       <c r="F16">
-        <v>1.004816692561448</v>
+        <v>1.06339396558221</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040804123006432</v>
+        <v>1.039568066891987</v>
       </c>
       <c r="J16">
-        <v>1.010024597407132</v>
+        <v>1.049444818430102</v>
       </c>
       <c r="K16">
-        <v>1.018596893797898</v>
+        <v>1.046437438003926</v>
       </c>
       <c r="L16">
-        <v>1.014181403277252</v>
+        <v>1.060010984553864</v>
       </c>
       <c r="M16">
-        <v>1.019063097546423</v>
+        <v>1.066736612443955</v>
       </c>
       <c r="N16">
-        <v>1.005869008963646</v>
+        <v>1.020139762619844</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9842233068742762</v>
+        <v>1.043721092842832</v>
       </c>
       <c r="D17">
-        <v>1.006617828308298</v>
+        <v>1.043425394438793</v>
       </c>
       <c r="E17">
-        <v>1.002765003756789</v>
+        <v>1.057181454649142</v>
       </c>
       <c r="F17">
-        <v>1.00784625801743</v>
+        <v>1.063951571425792</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041871735757488</v>
+        <v>1.039710125249486</v>
       </c>
       <c r="J17">
-        <v>1.012301557867915</v>
+        <v>1.049851287606436</v>
       </c>
       <c r="K17">
-        <v>1.020510809530237</v>
+        <v>1.046765559728417</v>
       </c>
       <c r="L17">
-        <v>1.016724725510081</v>
+        <v>1.060475101892121</v>
       </c>
       <c r="M17">
-        <v>1.021718098460924</v>
+        <v>1.067222809130278</v>
       </c>
       <c r="N17">
-        <v>1.006672623352641</v>
+        <v>1.020280193604293</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9860113704410277</v>
+        <v>1.044038242973413</v>
       </c>
       <c r="D18">
-        <v>1.007929952080382</v>
+        <v>1.043658924193603</v>
       </c>
       <c r="E18">
-        <v>1.004448150724516</v>
+        <v>1.057493991248176</v>
       </c>
       <c r="F18">
-        <v>1.009593191241172</v>
+        <v>1.064276719861759</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042485396896868</v>
+        <v>1.03979272803006</v>
       </c>
       <c r="J18">
-        <v>1.013613470653126</v>
+        <v>1.050088189755138</v>
       </c>
       <c r="K18">
-        <v>1.02161319387254</v>
+        <v>1.04695673237917</v>
       </c>
       <c r="L18">
-        <v>1.018190542496966</v>
+        <v>1.060745657698297</v>
       </c>
       <c r="M18">
-        <v>1.023248363098872</v>
+        <v>1.067506245334535</v>
       </c>
       <c r="N18">
-        <v>1.007135563683787</v>
+        <v>1.020362008438758</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9866174658215738</v>
+        <v>1.044146359885079</v>
       </c>
       <c r="D19">
-        <v>1.008374814814618</v>
+        <v>1.043738527420258</v>
       </c>
       <c r="E19">
-        <v>1.005018842864139</v>
+        <v>1.057600542319161</v>
       </c>
       <c r="F19">
-        <v>1.010185511434273</v>
+        <v>1.06438757137246</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042693133277403</v>
+        <v>1.039820849828798</v>
       </c>
       <c r="J19">
-        <v>1.014058113556168</v>
+        <v>1.050168936116964</v>
       </c>
       <c r="K19">
-        <v>1.021986760611764</v>
+        <v>1.047021880916816</v>
       </c>
       <c r="L19">
-        <v>1.018687421653304</v>
+        <v>1.060837883930436</v>
       </c>
       <c r="M19">
-        <v>1.02376710260827</v>
+        <v>1.067602863776481</v>
       </c>
       <c r="N19">
-        <v>1.007292452836943</v>
+        <v>1.020389888912837</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9838926823502152</v>
+        <v>1.043662744460169</v>
       </c>
       <c r="D20">
-        <v>1.006375255007842</v>
+        <v>1.043382426798064</v>
       </c>
       <c r="E20">
-        <v>1.002453856211942</v>
+        <v>1.057123958339666</v>
       </c>
       <c r="F20">
-        <v>1.007523319105207</v>
+        <v>1.063891755323237</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041758135377668</v>
+        <v>1.039694910375687</v>
       </c>
       <c r="J20">
-        <v>1.012058952165955</v>
+        <v>1.049807696422659</v>
       </c>
       <c r="K20">
-        <v>1.02030692196047</v>
+        <v>1.046730377658326</v>
       </c>
       <c r="L20">
-        <v>1.016453694315302</v>
+        <v>1.060425322666255</v>
       </c>
       <c r="M20">
-        <v>1.021435157529266</v>
+        <v>1.067170660805717</v>
       </c>
       <c r="N20">
-        <v>1.006587007592422</v>
+        <v>1.020265136648396</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9747725248186238</v>
+        <v>1.042088836550934</v>
       </c>
       <c r="D21">
-        <v>0.9996901184878186</v>
+        <v>1.042223003650544</v>
       </c>
       <c r="E21">
-        <v>0.9938804472128779</v>
+        <v>1.055573416451141</v>
       </c>
       <c r="F21">
-        <v>0.9986250068409301</v>
+        <v>1.062278695883398</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038609516161639</v>
+        <v>1.03928243901587</v>
       </c>
       <c r="J21">
-        <v>1.005364219013876</v>
+        <v>1.048631093194841</v>
       </c>
       <c r="K21">
-        <v>1.014677364048777</v>
+        <v>1.045780135143064</v>
       </c>
       <c r="L21">
-        <v>1.008978691336079</v>
+        <v>1.059082201387803</v>
       </c>
       <c r="M21">
-        <v>1.01363247579682</v>
+        <v>1.065763704126613</v>
       </c>
       <c r="N21">
-        <v>1.004223772262457</v>
+        <v>1.019858421201747</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9688212206492459</v>
+        <v>1.041097977862293</v>
       </c>
       <c r="D22">
-        <v>0.9953347222823079</v>
+        <v>1.041492701985143</v>
       </c>
       <c r="E22">
-        <v>0.9882957772322364</v>
+        <v>1.054597640925948</v>
       </c>
       <c r="F22">
-        <v>0.9928286589779181</v>
+        <v>1.06126361763142</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036540718205161</v>
+        <v>1.039020770021493</v>
       </c>
       <c r="J22">
-        <v>1.000993609445582</v>
+        <v>1.047889623125874</v>
       </c>
       <c r="K22">
-        <v>1.010999169242544</v>
+        <v>1.045180716953751</v>
       </c>
       <c r="L22">
-        <v>1.004102718278595</v>
+        <v>1.058236287655506</v>
       </c>
       <c r="M22">
-        <v>1.008543532865646</v>
+        <v>1.064877670016102</v>
       </c>
       <c r="N22">
-        <v>1.002680445002213</v>
+        <v>1.019601826427349</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9719978390517733</v>
+        <v>1.041623374295065</v>
       </c>
       <c r="D23">
-        <v>0.9976587725002973</v>
+        <v>1.041879975666694</v>
       </c>
       <c r="E23">
-        <v>0.9912757294008976</v>
+        <v>1.055115004065105</v>
       </c>
       <c r="F23">
-        <v>0.9959215677279383</v>
+        <v>1.061801815551216</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037646268326619</v>
+        <v>1.039159707348517</v>
       </c>
       <c r="J23">
-        <v>1.003326652458388</v>
+        <v>1.048282852428198</v>
       </c>
       <c r="K23">
-        <v>1.012962862109918</v>
+        <v>1.045498667128729</v>
       </c>
       <c r="L23">
-        <v>1.006705149355159</v>
+        <v>1.058684860725774</v>
       </c>
       <c r="M23">
-        <v>1.011259558395735</v>
+        <v>1.065347510266153</v>
       </c>
       <c r="N23">
-        <v>1.003504313875371</v>
+        <v>1.019737935758888</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9840421440888326</v>
+        <v>1.043689110006344</v>
       </c>
       <c r="D24">
-        <v>1.006484910578477</v>
+        <v>1.043401842471415</v>
       </c>
       <c r="E24">
-        <v>1.002594510226326</v>
+        <v>1.057149938738149</v>
       </c>
       <c r="F24">
-        <v>1.007669303392229</v>
+        <v>1.063918783934133</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041809494416131</v>
+        <v>1.039701786117634</v>
       </c>
       <c r="J24">
-        <v>1.012168625139495</v>
+        <v>1.049827393971867</v>
       </c>
       <c r="K24">
-        <v>1.02039909301462</v>
+        <v>1.046746275586132</v>
       </c>
       <c r="L24">
-        <v>1.016576216040632</v>
+        <v>1.060447816237356</v>
       </c>
       <c r="M24">
-        <v>1.021563062885072</v>
+        <v>1.067194224864694</v>
       </c>
       <c r="N24">
-        <v>1.006625711520017</v>
+        <v>1.020271940535758</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9971766993855453</v>
+        <v>1.046080919703083</v>
       </c>
       <c r="D25">
-        <v>1.016132195797589</v>
+        <v>1.045162231784301</v>
       </c>
       <c r="E25">
-        <v>1.014974352023484</v>
+        <v>1.059507686024743</v>
       </c>
       <c r="F25">
-        <v>1.020518401506645</v>
+        <v>1.066371755711521</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046288093877356</v>
+        <v>1.040320745060844</v>
       </c>
       <c r="J25">
-        <v>1.021799453867467</v>
+        <v>1.051612528737148</v>
       </c>
       <c r="K25">
-        <v>1.028485137464199</v>
+        <v>1.048185626023314</v>
       </c>
       <c r="L25">
-        <v>1.027344574186829</v>
+        <v>1.062487526475378</v>
       </c>
       <c r="M25">
-        <v>1.032806332004593</v>
+        <v>1.06933120769131</v>
       </c>
       <c r="N25">
-        <v>1.010022567877911</v>
+        <v>1.020887855358813</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_170/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_170/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.047984526711065</v>
+        <v>1.007070170745682</v>
       </c>
       <c r="D2">
-        <v>1.04656188699557</v>
+        <v>1.023410710376722</v>
       </c>
       <c r="E2">
-        <v>1.061385451533013</v>
+        <v>1.024324814496241</v>
       </c>
       <c r="F2">
-        <v>1.068325505254562</v>
+        <v>1.0302235974478</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040806349766163</v>
+        <v>1.049609252154825</v>
       </c>
       <c r="J2">
-        <v>1.053030688341007</v>
+        <v>1.029041451220784</v>
       </c>
       <c r="K2">
-        <v>1.049326976296874</v>
+        <v>1.034553253784286</v>
       </c>
       <c r="L2">
-        <v>1.06410965527328</v>
+        <v>1.035455356569078</v>
       </c>
       <c r="M2">
-        <v>1.071030989235665</v>
+        <v>1.041277334895493</v>
       </c>
       <c r="N2">
-        <v>1.021376121426462</v>
+        <v>1.012573525231206</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.049364455045103</v>
+        <v>1.013956332216612</v>
       </c>
       <c r="D3">
-        <v>1.047575659507991</v>
+        <v>1.028481057178213</v>
       </c>
       <c r="E3">
-        <v>1.062747371874247</v>
+        <v>1.030846211184327</v>
       </c>
       <c r="F3">
-        <v>1.069742620990987</v>
+        <v>1.036992677672919</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041154290034212</v>
+        <v>1.051889215031198</v>
       </c>
       <c r="J3">
-        <v>1.054057197472237</v>
+        <v>1.034073631345181</v>
       </c>
       <c r="K3">
-        <v>1.050151891331896</v>
+        <v>1.038762038960403</v>
       </c>
       <c r="L3">
-        <v>1.065284807494826</v>
+        <v>1.041099054167435</v>
       </c>
       <c r="M3">
-        <v>1.072262567953305</v>
+        <v>1.047173137320011</v>
       </c>
       <c r="N3">
-        <v>1.021728940453259</v>
+        <v>1.014343738167073</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.050256353290962</v>
+        <v>1.01828620647982</v>
       </c>
       <c r="D4">
-        <v>1.048230502198343</v>
+        <v>1.031670416019259</v>
       </c>
       <c r="E4">
-        <v>1.063627962558272</v>
+        <v>1.034952386724736</v>
       </c>
       <c r="F4">
-        <v>1.070658939636541</v>
+        <v>1.041254964979096</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041377288363388</v>
+        <v>1.05330771562803</v>
       </c>
       <c r="J4">
-        <v>1.054719963212003</v>
+        <v>1.037233440226329</v>
       </c>
       <c r="K4">
-        <v>1.050683925660687</v>
+        <v>1.041401061606107</v>
       </c>
       <c r="L4">
-        <v>1.06604400981479</v>
+        <v>1.044646503396187</v>
       </c>
       <c r="M4">
-        <v>1.073058303544114</v>
+        <v>1.050879725728588</v>
       </c>
       <c r="N4">
-        <v>1.021956457386525</v>
+        <v>1.015454077884286</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.050631071213899</v>
+        <v>1.020077916852604</v>
       </c>
       <c r="D5">
-        <v>1.048505528964791</v>
+        <v>1.032990371084233</v>
       </c>
       <c r="E5">
-        <v>1.063998008653675</v>
+        <v>1.03665282803699</v>
       </c>
       <c r="F5">
-        <v>1.071044009067763</v>
+        <v>1.043020097259404</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041470525350647</v>
+        <v>1.05389100769483</v>
       </c>
       <c r="J5">
-        <v>1.054998245359728</v>
+        <v>1.038539882293168</v>
       </c>
       <c r="K5">
-        <v>1.050907178866133</v>
+        <v>1.042491251238556</v>
       </c>
       <c r="L5">
-        <v>1.066362895266312</v>
+        <v>1.046114100747108</v>
       </c>
       <c r="M5">
-        <v>1.073392552922058</v>
+        <v>1.052413321922973</v>
       </c>
       <c r="N5">
-        <v>1.02205191978018</v>
+        <v>1.015912845185509</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.050693974305846</v>
+        <v>1.020377121273095</v>
       </c>
       <c r="D6">
-        <v>1.04855169147101</v>
+        <v>1.033210803734793</v>
       </c>
       <c r="E6">
-        <v>1.064060132106528</v>
+        <v>1.036936865767388</v>
       </c>
       <c r="F6">
-        <v>1.071108655204873</v>
+        <v>1.043314943421164</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041486150295108</v>
+        <v>1.053988195191142</v>
       </c>
       <c r="J6">
-        <v>1.055044950055241</v>
+        <v>1.038757984085977</v>
       </c>
       <c r="K6">
-        <v>1.050944639862228</v>
+        <v>1.04267319561577</v>
       </c>
       <c r="L6">
-        <v>1.066416421045967</v>
+        <v>1.046359158451379</v>
       </c>
       <c r="M6">
-        <v>1.073448658690854</v>
+        <v>1.052669409589532</v>
       </c>
       <c r="N6">
-        <v>1.022067937478276</v>
+        <v>1.01598941461362</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.050261361211527</v>
+        <v>1.018310257659163</v>
       </c>
       <c r="D7">
-        <v>1.048234178173336</v>
+        <v>1.031688133921811</v>
       </c>
       <c r="E7">
-        <v>1.063632907732794</v>
+        <v>1.034975207686083</v>
       </c>
       <c r="F7">
-        <v>1.070664085540364</v>
+        <v>1.041278653960163</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041378536208796</v>
+        <v>1.053315560169522</v>
       </c>
       <c r="J7">
-        <v>1.054723682981156</v>
+        <v>1.037250981761425</v>
       </c>
       <c r="K7">
-        <v>1.05068691040441</v>
+        <v>1.041415703248687</v>
       </c>
       <c r="L7">
-        <v>1.066048271885624</v>
+        <v>1.044666205252381</v>
       </c>
       <c r="M7">
-        <v>1.073062770887284</v>
+        <v>1.05090031294815</v>
       </c>
       <c r="N7">
-        <v>1.021957733688055</v>
+        <v>1.015460238979058</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.048451091692931</v>
+        <v>1.00942444781822</v>
       </c>
       <c r="D8">
-        <v>1.046904733076458</v>
+        <v>1.025143862232998</v>
       </c>
       <c r="E8">
-        <v>1.061845858825428</v>
+        <v>1.026553152897636</v>
       </c>
       <c r="F8">
-        <v>1.068804563563898</v>
+        <v>1.032536537682798</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040924382205356</v>
+        <v>1.050391879306061</v>
       </c>
       <c r="J8">
-        <v>1.053377905201996</v>
+        <v>1.030762754807441</v>
       </c>
       <c r="K8">
-        <v>1.049606122305749</v>
+        <v>1.035993683409868</v>
       </c>
       <c r="L8">
-        <v>1.064507054308982</v>
+        <v>1.037385067245936</v>
       </c>
       <c r="M8">
-        <v>1.07144745351495</v>
+        <v>1.043293104117366</v>
       </c>
       <c r="N8">
-        <v>1.02149552058148</v>
+        <v>1.013179287459579</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.045253217307409</v>
+        <v>0.9927238690187373</v>
       </c>
       <c r="D9">
-        <v>1.044553253029979</v>
+        <v>1.012859349718359</v>
       </c>
       <c r="E9">
-        <v>1.058691573228852</v>
+        <v>1.010773092100067</v>
       </c>
       <c r="F9">
-        <v>1.065522659502527</v>
+        <v>1.016157859732943</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040107635961389</v>
+        <v>1.044777900138053</v>
       </c>
       <c r="J9">
-        <v>1.05099517274108</v>
+        <v>1.018536208762548</v>
       </c>
       <c r="K9">
-        <v>1.047688179144339</v>
+        <v>1.02574718219808</v>
       </c>
       <c r="L9">
-        <v>1.061781862620274</v>
+        <v>1.023693768445689</v>
       </c>
       <c r="M9">
-        <v>1.06859184554627</v>
+        <v>1.028994115641368</v>
       </c>
       <c r="N9">
-        <v>1.020675012231528</v>
+        <v>1.00887207247405</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.043115632428281</v>
+        <v>0.9807669995489201</v>
       </c>
       <c r="D10">
-        <v>1.042979482235683</v>
+        <v>1.004082743611748</v>
       </c>
       <c r="E10">
-        <v>1.056584885391294</v>
+        <v>0.999513495963976</v>
       </c>
       <c r="F10">
-        <v>1.063330937953262</v>
+        <v>1.004471531307214</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039551978053284</v>
+        <v>1.040682222889292</v>
       </c>
       <c r="J10">
-        <v>1.049398858440118</v>
+        <v>1.009765038224431</v>
       </c>
       <c r="K10">
-        <v>1.046400327892118</v>
+        <v>1.018378672067869</v>
       </c>
       <c r="L10">
-        <v>1.059958513605715</v>
+        <v>1.013891539950709</v>
       </c>
       <c r="M10">
-        <v>1.066681646567291</v>
+        <v>1.018760517502158</v>
       </c>
       <c r="N10">
-        <v>1.020123879519072</v>
+        <v>1.005777392117821</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.042188617174637</v>
+        <v>0.9753625959994573</v>
       </c>
       <c r="D11">
-        <v>1.042296529774853</v>
+        <v>1.000122267251953</v>
       </c>
       <c r="E11">
-        <v>1.055671694042146</v>
+        <v>0.994434590716625</v>
       </c>
       <c r="F11">
-        <v>1.062380933646575</v>
+        <v>0.9992001518061026</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039308704895993</v>
+        <v>1.038814059526482</v>
       </c>
       <c r="J11">
-        <v>1.048705728982831</v>
+        <v>1.005797493316659</v>
       </c>
       <c r="K11">
-        <v>1.045840446931048</v>
+        <v>1.015041878159971</v>
       </c>
       <c r="L11">
-        <v>1.059167371222747</v>
+        <v>1.009462231278707</v>
       </c>
       <c r="M11">
-        <v>1.065852916986255</v>
+        <v>1.014137167872428</v>
       </c>
       <c r="N11">
-        <v>1.019884237518317</v>
+        <v>1.004376750243492</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.04184406169352</v>
+        <v>0.9733179531931102</v>
       </c>
       <c r="D12">
-        <v>1.042042621899563</v>
+        <v>0.9986250731113313</v>
       </c>
       <c r="E12">
-        <v>1.055332341063342</v>
+        <v>0.9925147668282244</v>
       </c>
       <c r="F12">
-        <v>1.062027907504409</v>
+        <v>0.9972075670290625</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039217939527765</v>
+        <v>1.038104842826142</v>
       </c>
       <c r="J12">
-        <v>1.048447977627891</v>
+        <v>1.004296103229093</v>
       </c>
       <c r="K12">
-        <v>1.045632143231858</v>
+        <v>1.013778662041613</v>
       </c>
       <c r="L12">
-        <v>1.058873257249252</v>
+        <v>1.007786790993212</v>
       </c>
       <c r="M12">
-        <v>1.065544844147237</v>
+        <v>1.012388461905525</v>
       </c>
       <c r="N12">
-        <v>1.019795072419033</v>
+        <v>1.003846632935013</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.041917980105454</v>
+        <v>0.9737582737559669</v>
       </c>
       <c r="D13">
-        <v>1.042097096419169</v>
+        <v>0.9989474426785337</v>
       </c>
       <c r="E13">
-        <v>1.055405140445102</v>
+        <v>0.9929281296251632</v>
       </c>
       <c r="F13">
-        <v>1.062103639793966</v>
+        <v>0.9976365965710438</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039237427267967</v>
+        <v>1.038257683053061</v>
       </c>
       <c r="J13">
-        <v>1.048503279464824</v>
+        <v>1.004619446634686</v>
       </c>
       <c r="K13">
-        <v>1.04567684047885</v>
+        <v>1.01405073404978</v>
       </c>
       <c r="L13">
-        <v>1.058936357019998</v>
+        <v>1.008147587282445</v>
       </c>
       <c r="M13">
-        <v>1.065610938023731</v>
+        <v>1.012765029535315</v>
       </c>
       <c r="N13">
-        <v>1.019814205509897</v>
+        <v>1.003960803944389</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.042160140651086</v>
+        <v>0.9751943635114789</v>
       </c>
       <c r="D14">
-        <v>1.042275546361951</v>
+        <v>0.9999990537397101</v>
       </c>
       <c r="E14">
-        <v>1.055643646173652</v>
+        <v>0.9942765936079944</v>
       </c>
       <c r="F14">
-        <v>1.062351755535235</v>
+        <v>0.9990361668056921</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039301210431596</v>
+        <v>1.038755754163331</v>
       </c>
       <c r="J14">
-        <v>1.048684429162803</v>
+        <v>1.005673965976288</v>
       </c>
       <c r="K14">
-        <v>1.045823235417862</v>
+        <v>1.014937956790207</v>
       </c>
       <c r="L14">
-        <v>1.059143064767907</v>
+        <v>1.009324369951411</v>
       </c>
       <c r="M14">
-        <v>1.065827456633586</v>
+        <v>1.013993275284301</v>
       </c>
       <c r="N14">
-        <v>1.01987687020023</v>
+        <v>1.004333136304677</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.042309314314181</v>
+        <v>0.9760741561957339</v>
       </c>
       <c r="D15">
-        <v>1.042385464816571</v>
+        <v>1.000643462837554</v>
       </c>
       <c r="E15">
-        <v>1.055790576976405</v>
+        <v>0.9951029278772069</v>
       </c>
       <c r="F15">
-        <v>1.062504607482868</v>
+        <v>0.9998938178250537</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039340455903222</v>
+        <v>1.039060570952961</v>
       </c>
       <c r="J15">
-        <v>1.048796002613287</v>
+        <v>1.006319953861814</v>
       </c>
       <c r="K15">
-        <v>1.045913389147367</v>
+        <v>1.01548139440346</v>
       </c>
       <c r="L15">
-        <v>1.059270391157805</v>
+        <v>1.010045345607204</v>
       </c>
       <c r="M15">
-        <v>1.06596082816954</v>
+        <v>1.014745798120784</v>
       </c>
       <c r="N15">
-        <v>1.019915459879416</v>
+        <v>1.004561212538757</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.043177124772141</v>
+        <v>0.9811206331645739</v>
       </c>
       <c r="D16">
-        <v>1.043024775640004</v>
+        <v>1.004342044909071</v>
       </c>
       <c r="E16">
-        <v>1.056645469737099</v>
+        <v>0.9998460546633198</v>
       </c>
       <c r="F16">
-        <v>1.06339396558221</v>
+        <v>1.004816692561449</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039568066891987</v>
+        <v>1.040804123006432</v>
       </c>
       <c r="J16">
-        <v>1.049444818430102</v>
+        <v>1.010024597407132</v>
       </c>
       <c r="K16">
-        <v>1.046437438003926</v>
+        <v>1.018596893797899</v>
       </c>
       <c r="L16">
-        <v>1.060010984553864</v>
+        <v>1.014181403277252</v>
       </c>
       <c r="M16">
-        <v>1.066736612443955</v>
+        <v>1.019063097546423</v>
       </c>
       <c r="N16">
-        <v>1.020139762619844</v>
+        <v>1.005869008963646</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.043721092842832</v>
+        <v>0.9842233068742748</v>
       </c>
       <c r="D17">
-        <v>1.043425394438793</v>
+        <v>1.006617828308296</v>
       </c>
       <c r="E17">
-        <v>1.057181454649142</v>
+        <v>1.002765003756788</v>
       </c>
       <c r="F17">
-        <v>1.063951571425792</v>
+        <v>1.007846258017429</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039710125249486</v>
+        <v>1.041871735757488</v>
       </c>
       <c r="J17">
-        <v>1.049851287606436</v>
+        <v>1.012301557867913</v>
       </c>
       <c r="K17">
-        <v>1.046765559728417</v>
+        <v>1.020510809530235</v>
       </c>
       <c r="L17">
-        <v>1.060475101892121</v>
+        <v>1.016724725510079</v>
       </c>
       <c r="M17">
-        <v>1.067222809130278</v>
+        <v>1.021718098460922</v>
       </c>
       <c r="N17">
-        <v>1.020280193604293</v>
+        <v>1.00667262335264</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.044038242973413</v>
+        <v>0.9860113704410288</v>
       </c>
       <c r="D18">
-        <v>1.043658924193603</v>
+        <v>1.007929952080383</v>
       </c>
       <c r="E18">
-        <v>1.057493991248176</v>
+        <v>1.004448150724518</v>
       </c>
       <c r="F18">
-        <v>1.064276719861759</v>
+        <v>1.009593191241173</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03979272803006</v>
+        <v>1.042485396896869</v>
       </c>
       <c r="J18">
-        <v>1.050088189755138</v>
+        <v>1.013613470653127</v>
       </c>
       <c r="K18">
-        <v>1.04695673237917</v>
+        <v>1.021613193872541</v>
       </c>
       <c r="L18">
-        <v>1.060745657698297</v>
+        <v>1.018190542496967</v>
       </c>
       <c r="M18">
-        <v>1.067506245334535</v>
+        <v>1.023248363098872</v>
       </c>
       <c r="N18">
-        <v>1.020362008438758</v>
+        <v>1.007135563683787</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.044146359885079</v>
+        <v>0.9866174658215739</v>
       </c>
       <c r="D19">
-        <v>1.043738527420258</v>
+        <v>1.008374814814618</v>
       </c>
       <c r="E19">
-        <v>1.057600542319161</v>
+        <v>1.005018842864139</v>
       </c>
       <c r="F19">
-        <v>1.06438757137246</v>
+        <v>1.010185511434273</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039820849828798</v>
+        <v>1.042693133277404</v>
       </c>
       <c r="J19">
-        <v>1.050168936116964</v>
+        <v>1.014058113556168</v>
       </c>
       <c r="K19">
-        <v>1.047021880916816</v>
+        <v>1.021986760611765</v>
       </c>
       <c r="L19">
-        <v>1.060837883930436</v>
+        <v>1.018687421653304</v>
       </c>
       <c r="M19">
-        <v>1.067602863776481</v>
+        <v>1.02376710260827</v>
       </c>
       <c r="N19">
-        <v>1.020389888912837</v>
+        <v>1.007292452836944</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.043662744460169</v>
+        <v>0.9838926823502154</v>
       </c>
       <c r="D20">
-        <v>1.043382426798064</v>
+        <v>1.006375255007842</v>
       </c>
       <c r="E20">
-        <v>1.057123958339666</v>
+        <v>1.002453856211942</v>
       </c>
       <c r="F20">
-        <v>1.063891755323237</v>
+        <v>1.007523319105207</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039694910375687</v>
+        <v>1.041758135377668</v>
       </c>
       <c r="J20">
-        <v>1.049807696422659</v>
+        <v>1.012058952165955</v>
       </c>
       <c r="K20">
-        <v>1.046730377658326</v>
+        <v>1.020306921960471</v>
       </c>
       <c r="L20">
-        <v>1.060425322666255</v>
+        <v>1.016453694315302</v>
       </c>
       <c r="M20">
-        <v>1.067170660805717</v>
+        <v>1.021435157529266</v>
       </c>
       <c r="N20">
-        <v>1.020265136648396</v>
+        <v>1.006587007592422</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.042088836550934</v>
+        <v>0.9747725248186242</v>
       </c>
       <c r="D21">
-        <v>1.042223003650544</v>
+        <v>0.999690118487819</v>
       </c>
       <c r="E21">
-        <v>1.055573416451141</v>
+        <v>0.993880447212878</v>
       </c>
       <c r="F21">
-        <v>1.062278695883398</v>
+        <v>0.9986250068409301</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03928243901587</v>
+        <v>1.038609516161639</v>
       </c>
       <c r="J21">
-        <v>1.048631093194841</v>
+        <v>1.005364219013877</v>
       </c>
       <c r="K21">
-        <v>1.045780135143064</v>
+        <v>1.014677364048778</v>
       </c>
       <c r="L21">
-        <v>1.059082201387803</v>
+        <v>1.00897869133608</v>
       </c>
       <c r="M21">
-        <v>1.065763704126613</v>
+        <v>1.01363247579682</v>
       </c>
       <c r="N21">
-        <v>1.019858421201747</v>
+        <v>1.004223772262458</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.041097977862293</v>
+        <v>0.9688212206492445</v>
       </c>
       <c r="D22">
-        <v>1.041492701985143</v>
+        <v>0.9953347222823068</v>
       </c>
       <c r="E22">
-        <v>1.054597640925948</v>
+        <v>0.9882957772322346</v>
       </c>
       <c r="F22">
-        <v>1.06126361763142</v>
+        <v>0.9928286589779164</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039020770021493</v>
+        <v>1.03654071820516</v>
       </c>
       <c r="J22">
-        <v>1.047889623125874</v>
+        <v>1.000993609445581</v>
       </c>
       <c r="K22">
-        <v>1.045180716953751</v>
+        <v>1.010999169242543</v>
       </c>
       <c r="L22">
-        <v>1.058236287655506</v>
+        <v>1.004102718278593</v>
       </c>
       <c r="M22">
-        <v>1.064877670016102</v>
+        <v>1.008543532865644</v>
       </c>
       <c r="N22">
-        <v>1.019601826427349</v>
+        <v>1.002680445002213</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.041623374295065</v>
+        <v>0.9719978390517724</v>
       </c>
       <c r="D23">
-        <v>1.041879975666694</v>
+        <v>0.9976587725002964</v>
       </c>
       <c r="E23">
-        <v>1.055115004065105</v>
+        <v>0.9912757294008965</v>
       </c>
       <c r="F23">
-        <v>1.061801815551216</v>
+        <v>0.9959215677279373</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039159707348517</v>
+        <v>1.037646268326618</v>
       </c>
       <c r="J23">
-        <v>1.048282852428198</v>
+        <v>1.003326652458387</v>
       </c>
       <c r="K23">
-        <v>1.045498667128729</v>
+        <v>1.012962862109917</v>
       </c>
       <c r="L23">
-        <v>1.058684860725774</v>
+        <v>1.006705149355158</v>
       </c>
       <c r="M23">
-        <v>1.065347510266153</v>
+        <v>1.011259558395734</v>
       </c>
       <c r="N23">
-        <v>1.019737935758888</v>
+        <v>1.00350431387537</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.043689110006344</v>
+        <v>0.9840421440888337</v>
       </c>
       <c r="D24">
-        <v>1.043401842471415</v>
+        <v>1.006484910578477</v>
       </c>
       <c r="E24">
-        <v>1.057149938738149</v>
+        <v>1.002594510226327</v>
       </c>
       <c r="F24">
-        <v>1.063918783934133</v>
+        <v>1.007669303392231</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039701786117634</v>
+        <v>1.041809494416132</v>
       </c>
       <c r="J24">
-        <v>1.049827393971867</v>
+        <v>1.012168625139496</v>
       </c>
       <c r="K24">
-        <v>1.046746275586132</v>
+        <v>1.02039909301462</v>
       </c>
       <c r="L24">
-        <v>1.060447816237356</v>
+        <v>1.016576216040633</v>
       </c>
       <c r="M24">
-        <v>1.067194224864694</v>
+        <v>1.021563062885074</v>
       </c>
       <c r="N24">
-        <v>1.020271940535758</v>
+        <v>1.006625711520018</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.046080919703083</v>
+        <v>0.9971766993855463</v>
       </c>
       <c r="D25">
-        <v>1.045162231784301</v>
+        <v>1.01613219579759</v>
       </c>
       <c r="E25">
-        <v>1.059507686024743</v>
+        <v>1.014974352023485</v>
       </c>
       <c r="F25">
-        <v>1.066371755711521</v>
+        <v>1.020518401506646</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040320745060844</v>
+        <v>1.046288093877357</v>
       </c>
       <c r="J25">
-        <v>1.051612528737148</v>
+        <v>1.021799453867468</v>
       </c>
       <c r="K25">
-        <v>1.048185626023314</v>
+        <v>1.0284851374642</v>
       </c>
       <c r="L25">
-        <v>1.062487526475378</v>
+        <v>1.02734457418683</v>
       </c>
       <c r="M25">
-        <v>1.06933120769131</v>
+        <v>1.032806332004594</v>
       </c>
       <c r="N25">
-        <v>1.020887855358813</v>
+        <v>1.010022567877911</v>
       </c>
     </row>
   </sheetData>
